--- a/diagramme/SpielerTests.xlsx
+++ b/diagramme/SpielerTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\UNI\S4\ComputerspielEntwicklung\DasSpiel\anfaengerpraktikum\diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559B51D-F980-4506-9F7A-4AB00BC54926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4070F7AD-DC7F-45FE-A70E-68A244FAF663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>Nr.</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Tasteneingabe</t>
   </si>
   <si>
-    <t>Testergebnis</t>
-  </si>
-  <si>
     <t>Der Spieler muss sich nach rechts bewegen können [Taste 'D']</t>
   </si>
   <si>
@@ -232,12 +229,6 @@
     <t>Die Animation 'heavy_attack' wird abgespielt</t>
   </si>
   <si>
-    <t>Anforderungstest:</t>
-  </si>
-  <si>
-    <t>Animationstest:</t>
-  </si>
-  <si>
     <t>Die Animation 'block' wird abgespielt, wenn der Spieler blockt</t>
   </si>
   <si>
@@ -392,13 +383,19 @@
   </si>
   <si>
     <t>Die Animation 'dash' wird abgespielt</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Tests für Spieler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +413,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,19 +479,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,653 +815,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="114.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>35</v>
+      <c r="F33" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>